--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>878173.1074262093</v>
+        <v>875712.191207767</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.3698596490249</v>
+        <v>196.7325976348451</v>
       </c>
       <c r="C11" t="n">
-        <v>319.9089097565519</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>309.3190596062273</v>
       </c>
       <c r="E11" t="n">
-        <v>54.42441112390799</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>361.5120637272557</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.011713299731319</v>
+        <v>6.011713299731269</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.6156057194172</v>
+        <v>69.61560571941718</v>
       </c>
       <c r="T11" t="n">
         <v>159.6666032903773</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.6515232884136</v>
       </c>
       <c r="V11" t="n">
         <v>282.3882764556792</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>121.1692016354116</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>127.34451697386</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>102.0810835501831</v>
       </c>
       <c r="E12" t="n">
-        <v>112.2810984409452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>99.70523037892818</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.26470978638228</v>
+        <v>89.77147837803393</v>
       </c>
       <c r="H12" t="n">
-        <v>45.54628235744585</v>
+        <v>72.53888652825276</v>
       </c>
       <c r="I12" t="n">
-        <v>23.49937276245689</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.586294988847953</v>
+        <v>8.586294988847897</v>
       </c>
       <c r="S12" t="n">
-        <v>85.30550301919169</v>
+        <v>130.6694850336474</v>
       </c>
       <c r="T12" t="n">
         <v>191.2647103952927</v>
@@ -1531,7 +1531,7 @@
         <v>121.8828390841721</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>103.2514910037567</v>
       </c>
       <c r="E13" t="n">
         <v>101.0699806321135</v>
@@ -1540,13 +1540,13 @@
         <v>100.0570660084755</v>
       </c>
       <c r="G13" t="n">
-        <v>120.7758367208648</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>100.404689679991</v>
       </c>
       <c r="I13" t="n">
-        <v>54.41704435515401</v>
+        <v>13.84219534958595</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.6944962532429</v>
+        <v>48.69449625324286</v>
       </c>
       <c r="S13" t="n">
         <v>146.3919349810981</v>
@@ -1585,7 +1585,7 @@
         <v>240.8540749444095</v>
       </c>
       <c r="V13" t="n">
-        <v>148.6744665866947</v>
+        <v>206.7736613093723</v>
       </c>
       <c r="W13" t="n">
         <v>241.1590163221353</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.3698596490249</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>319.9089097565519</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>361.5120637272557</v>
+        <v>244.3474649052827</v>
       </c>
       <c r="G14" t="n">
         <v>365.8119104385895</v>
       </c>
       <c r="H14" t="n">
-        <v>251.8467681091838</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.011713299731319</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.61560571941718</v>
       </c>
       <c r="T14" t="n">
         <v>159.6666032903773</v>
@@ -1670,10 +1670,10 @@
         <v>303.8769867029573</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>324.3671186640133</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.4637411451131</v>
+        <v>340.8739566415979</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.1692016354116</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1695,16 +1695,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>99.70523037892818</v>
       </c>
       <c r="G15" t="n">
         <v>89.77147837803393</v>
       </c>
       <c r="H15" t="n">
-        <v>57.62580875464194</v>
+        <v>90.91026437190156</v>
       </c>
       <c r="I15" t="n">
-        <v>23.49937276245689</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.586294988847897</v>
       </c>
       <c r="S15" t="n">
-        <v>130.6694850336474</v>
+        <v>85.30550301919168</v>
       </c>
       <c r="T15" t="n">
-        <v>145.900728380837</v>
+        <v>191.2647103952927</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7961151881642</v>
+        <v>180.4321331737085</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>214.4292093057766</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>160.3187137628487</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>134.4679981674816</v>
       </c>
       <c r="C16" t="n">
         <v>121.8828390841721</v>
@@ -1774,16 +1774,16 @@
         <v>101.0699806321135</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0570660084755</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.7758367208648</v>
+        <v>113.8992613580616</v>
       </c>
       <c r="H16" t="n">
         <v>100.404689679991</v>
       </c>
       <c r="I16" t="n">
-        <v>54.41704435515401</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.6944962532429</v>
+        <v>48.69449625324286</v>
       </c>
       <c r="S16" t="n">
         <v>146.3919349810981</v>
@@ -1831,7 +1831,7 @@
         <v>180.3456733745815</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.3379837786868</v>
+        <v>173.2206713376391</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>178.0327941906987</v>
       </c>
       <c r="C17" t="n">
-        <v>272.9337731379592</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>262.3439229876345</v>
+        <v>262.3439229876348</v>
       </c>
       <c r="E17" t="n">
-        <v>289.5912514392134</v>
+        <v>289.5912514392136</v>
       </c>
       <c r="F17" t="n">
-        <v>314.536927108663</v>
+        <v>314.5369271086632</v>
       </c>
       <c r="G17" t="n">
-        <v>318.8367738199968</v>
+        <v>318.836773819997</v>
       </c>
       <c r="H17" t="n">
-        <v>204.8716314905911</v>
+        <v>204.8716314905913</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>22.64046910082448</v>
+        <v>22.64046910082469</v>
       </c>
       <c r="T17" t="n">
-        <v>112.6914666717846</v>
+        <v>112.6914666717849</v>
       </c>
       <c r="U17" t="n">
-        <v>158.6763866698209</v>
+        <v>158.6763866698211</v>
       </c>
       <c r="V17" t="n">
-        <v>235.4131398370865</v>
+        <v>235.4131398370867</v>
       </c>
       <c r="W17" t="n">
-        <v>256.9018500843646</v>
+        <v>256.9018500843648</v>
       </c>
       <c r="X17" t="n">
-        <v>182.4910030981607</v>
+        <v>277.3919820454208</v>
       </c>
       <c r="Y17" t="n">
-        <v>293.8988200230052</v>
+        <v>293.8988200230054</v>
       </c>
     </row>
     <row r="18">
@@ -1929,13 +1929,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>118.9966390575693</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>52.73009376033548</v>
+        <v>106.4207709955516</v>
       </c>
       <c r="G18" t="n">
-        <v>135.1354603924896</v>
+        <v>42.79634175944145</v>
       </c>
       <c r="H18" t="n">
         <v>90.91026437190156</v>
@@ -1974,7 +1974,7 @@
         <v>130.6694850336474</v>
       </c>
       <c r="T18" t="n">
-        <v>98.92559176224427</v>
+        <v>191.2647103952927</v>
       </c>
       <c r="U18" t="n">
         <v>225.7961151881642</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>113.3435771442562</v>
       </c>
     </row>
     <row r="19">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.4928615488889</v>
+        <v>87.49286154888911</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90770246557943</v>
+        <v>74.90770246557965</v>
       </c>
       <c r="D19" t="n">
-        <v>56.27635438516396</v>
+        <v>56.27635438516417</v>
       </c>
       <c r="E19" t="n">
-        <v>54.09484401352077</v>
+        <v>54.09484401352098</v>
       </c>
       <c r="F19" t="n">
-        <v>53.08192938988284</v>
+        <v>53.08192938988306</v>
       </c>
       <c r="G19" t="n">
-        <v>73.8007001022721</v>
+        <v>73.80070010227232</v>
       </c>
       <c r="H19" t="n">
-        <v>53.42955306139832</v>
+        <v>53.42955306139854</v>
       </c>
       <c r="I19" t="n">
-        <v>7.441907736561291</v>
+        <v>7.441907736561504</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.719359634650161</v>
+        <v>1.719359634650374</v>
       </c>
       <c r="S19" t="n">
-        <v>99.41679836250539</v>
+        <v>99.41679836250559</v>
       </c>
       <c r="T19" t="n">
-        <v>127.6969663145515</v>
+        <v>127.6969663145517</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8789383258168</v>
+        <v>193.878938325817</v>
       </c>
       <c r="V19" t="n">
-        <v>159.7985246907796</v>
+        <v>159.7985246907798</v>
       </c>
       <c r="W19" t="n">
-        <v>194.1838797035426</v>
+        <v>194.1838797035428</v>
       </c>
       <c r="X19" t="n">
-        <v>133.3705367559888</v>
+        <v>133.370536755989</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.2455347190464</v>
+        <v>126.2455347190466</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>290.3947230304321</v>
+        <v>290.3947230304324</v>
       </c>
       <c r="C20" t="n">
-        <v>272.9337731379592</v>
+        <v>272.9337731379593</v>
       </c>
       <c r="D20" t="n">
-        <v>262.3439229876345</v>
+        <v>262.3439229876348</v>
       </c>
       <c r="E20" t="n">
-        <v>289.5912514392134</v>
+        <v>289.5912514392136</v>
       </c>
       <c r="F20" t="n">
-        <v>314.536927108663</v>
+        <v>248.0779989509651</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>204.8716314905911</v>
+        <v>204.8716314905913</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>22.64046910082448</v>
+        <v>22.64046910082469</v>
       </c>
       <c r="T20" t="n">
-        <v>112.6914666717846</v>
+        <v>112.6914666717849</v>
       </c>
       <c r="U20" t="n">
-        <v>158.6763866698209</v>
+        <v>158.6763866698211</v>
       </c>
       <c r="V20" t="n">
-        <v>168.9542116793915</v>
+        <v>235.4131398370867</v>
       </c>
       <c r="W20" t="n">
-        <v>256.9018500843646</v>
+        <v>256.9018500843648</v>
       </c>
       <c r="X20" t="n">
-        <v>277.3919820454206</v>
+        <v>277.3919820454208</v>
       </c>
       <c r="Y20" t="n">
-        <v>293.8988200230052</v>
+        <v>293.8988200230054</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>80.36938035526755</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.1354603924896</v>
+        <v>95.05816473351089</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.49937276245686</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.586294988847897</v>
       </c>
       <c r="S21" t="n">
-        <v>122.6778571259733</v>
+        <v>130.6694850336474</v>
       </c>
       <c r="T21" t="n">
         <v>191.2647103952927</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>113.4338665704291</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.4928615488889</v>
+        <v>87.49286154888911</v>
       </c>
       <c r="C22" t="n">
-        <v>74.90770246557943</v>
+        <v>74.90770246557965</v>
       </c>
       <c r="D22" t="n">
-        <v>56.27635438516396</v>
+        <v>56.27635438516417</v>
       </c>
       <c r="E22" t="n">
-        <v>54.09484401352077</v>
+        <v>54.09484401352098</v>
       </c>
       <c r="F22" t="n">
-        <v>53.08192938988284</v>
+        <v>53.08192938988306</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8007001022721</v>
+        <v>73.80070010227232</v>
       </c>
       <c r="H22" t="n">
-        <v>53.42955306139832</v>
+        <v>53.42955306139854</v>
       </c>
       <c r="I22" t="n">
-        <v>7.441907736561291</v>
+        <v>7.441907736561504</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.719359634650161</v>
+        <v>1.719359634650374</v>
       </c>
       <c r="S22" t="n">
-        <v>99.41679836250539</v>
+        <v>99.41679836250559</v>
       </c>
       <c r="T22" t="n">
-        <v>127.6969663145515</v>
+        <v>127.6969663145517</v>
       </c>
       <c r="U22" t="n">
-        <v>193.8789383258168</v>
+        <v>193.878938325817</v>
       </c>
       <c r="V22" t="n">
-        <v>159.7985246907796</v>
+        <v>159.7985246907798</v>
       </c>
       <c r="W22" t="n">
-        <v>194.1838797035426</v>
+        <v>194.1838797035428</v>
       </c>
       <c r="X22" t="n">
-        <v>133.3705367559888</v>
+        <v>133.370536755989</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.2455347190464</v>
+        <v>126.2455347190466</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>290.3947230304323</v>
       </c>
       <c r="C23" t="n">
-        <v>272.9337731379592</v>
+        <v>272.9337731379593</v>
       </c>
       <c r="D23" t="n">
-        <v>262.3439229876346</v>
+        <v>262.3439229876347</v>
       </c>
       <c r="E23" t="n">
         <v>289.5912514392135</v>
       </c>
       <c r="F23" t="n">
-        <v>314.5369271086631</v>
+        <v>314.5369271086632</v>
       </c>
       <c r="G23" t="n">
-        <v>318.5826070204051</v>
+        <v>318.5826070204052</v>
       </c>
       <c r="H23" t="n">
-        <v>202.2686457542721</v>
+        <v>202.2686457542722</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>16.84864315512749</v>
+        <v>16.84864315512758</v>
       </c>
       <c r="T23" t="n">
-        <v>111.5788515065718</v>
+        <v>111.5788515065719</v>
       </c>
       <c r="U23" t="n">
-        <v>158.6560533258536</v>
+        <v>158.6560533258537</v>
       </c>
       <c r="V23" t="n">
         <v>235.4131398370866</v>
       </c>
       <c r="W23" t="n">
-        <v>256.9018500843647</v>
+        <v>256.9018500843648</v>
       </c>
       <c r="X23" t="n">
-        <v>277.3919820454207</v>
+        <v>277.3919820454208</v>
       </c>
       <c r="Y23" t="n">
-        <v>293.8988200230052</v>
+        <v>293.8988200230053</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933838</v>
       </c>
       <c r="G24" t="n">
         <v>134.9994691657081</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.49286154888895</v>
+        <v>87.49286154888904</v>
       </c>
       <c r="C25" t="n">
-        <v>74.90770246557949</v>
+        <v>74.90770246557958</v>
       </c>
       <c r="D25" t="n">
-        <v>56.27635438516401</v>
+        <v>56.2763543851641</v>
       </c>
       <c r="E25" t="n">
-        <v>54.09484401352083</v>
+        <v>54.09484401352091</v>
       </c>
       <c r="F25" t="n">
-        <v>53.0819293898829</v>
+        <v>53.08192938988299</v>
       </c>
       <c r="G25" t="n">
-        <v>73.68668962597988</v>
+        <v>73.68668962597997</v>
       </c>
       <c r="H25" t="n">
-        <v>52.41589628127244</v>
+        <v>52.41589628127252</v>
       </c>
       <c r="I25" t="n">
-        <v>4.013301776789753</v>
+        <v>4.013301776789838</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>97.42990669839355</v>
+        <v>97.42990669839364</v>
       </c>
       <c r="T25" t="n">
         <v>127.2098306431209</v>
       </c>
       <c r="U25" t="n">
-        <v>193.8727195725645</v>
+        <v>193.8727195725646</v>
       </c>
       <c r="V25" t="n">
         <v>159.7985246907797</v>
@@ -2539,10 +2539,10 @@
         <v>194.1838797035427</v>
       </c>
       <c r="X25" t="n">
-        <v>133.3705367559888</v>
+        <v>133.3705367559889</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.2455347190464</v>
+        <v>126.2455347190465</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851126</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3354,7 +3354,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G36" t="n">
         <v>134.9994691657081</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,10 +3487,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441572</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136064</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279494</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1179.171486794988</v>
+        <v>1113.500515810915</v>
       </c>
       <c r="C11" t="n">
-        <v>856.0311739095824</v>
+        <v>1113.500515810915</v>
       </c>
       <c r="D11" t="n">
-        <v>856.0311739095824</v>
+        <v>801.0570212591704</v>
       </c>
       <c r="E11" t="n">
         <v>801.0570212591704</v>
@@ -5036,55 +5036,55 @@
         <v>66.38634028356915</v>
       </c>
       <c r="I11" t="n">
-        <v>60.31390260707285</v>
+        <v>60.31390260707289</v>
       </c>
       <c r="J11" t="n">
-        <v>227.8366650533162</v>
+        <v>227.8366650533164</v>
       </c>
       <c r="K11" t="n">
-        <v>529.6483784099291</v>
+        <v>529.6483784099293</v>
       </c>
       <c r="L11" t="n">
-        <v>940.9742587040282</v>
+        <v>940.9742587040287</v>
       </c>
       <c r="M11" t="n">
-        <v>1430.322991987625</v>
+        <v>1430.322991987626</v>
       </c>
       <c r="N11" t="n">
-        <v>1932.203707752933</v>
+        <v>1932.203707752934</v>
       </c>
       <c r="O11" t="n">
-        <v>2392.780174741102</v>
+        <v>2392.780174741104</v>
       </c>
       <c r="P11" t="n">
-        <v>2751.370532643385</v>
+        <v>2751.370532643386</v>
       </c>
       <c r="Q11" t="n">
-        <v>2972.484210969447</v>
+        <v>2972.484210969449</v>
       </c>
       <c r="R11" t="n">
-        <v>3015.695130353643</v>
+        <v>3015.695130353644</v>
       </c>
       <c r="S11" t="n">
-        <v>2945.376336697665</v>
+        <v>2945.376336697667</v>
       </c>
       <c r="T11" t="n">
-        <v>2784.096939434658</v>
+        <v>2784.09693943466</v>
       </c>
       <c r="U11" t="n">
-        <v>2784.096939434658</v>
+        <v>2576.368128032222</v>
       </c>
       <c r="V11" t="n">
-        <v>2498.856256146093</v>
+        <v>2291.127444743657</v>
       </c>
       <c r="W11" t="n">
-        <v>2191.909804930984</v>
+        <v>1984.180993528549</v>
       </c>
       <c r="X11" t="n">
-        <v>1864.26625072491</v>
+        <v>1656.537439322474</v>
       </c>
       <c r="Y11" t="n">
-        <v>1519.949122804104</v>
+        <v>1312.220311401668</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.7788099597121</v>
+        <v>761.778809959714</v>
       </c>
       <c r="C12" t="n">
-        <v>587.3257806785851</v>
+        <v>633.1479847335927</v>
       </c>
       <c r="D12" t="n">
-        <v>438.3913710173339</v>
+        <v>530.0357791273472</v>
       </c>
       <c r="E12" t="n">
-        <v>324.9761200668842</v>
+        <v>370.7983241218917</v>
       </c>
       <c r="F12" t="n">
-        <v>224.2637661487749</v>
+        <v>224.2637661487766</v>
       </c>
       <c r="G12" t="n">
-        <v>130.0569885867726</v>
+        <v>133.5855051608636</v>
       </c>
       <c r="H12" t="n">
-        <v>84.05064277117071</v>
+        <v>60.31390260707289</v>
       </c>
       <c r="I12" t="n">
-        <v>60.31390260707285</v>
+        <v>60.31390260707289</v>
       </c>
       <c r="J12" t="n">
-        <v>141.2714653172482</v>
+        <v>141.2714653172484</v>
       </c>
       <c r="K12" t="n">
-        <v>357.795659444732</v>
+        <v>357.7956594447323</v>
       </c>
       <c r="L12" t="n">
-        <v>695.2617003494879</v>
+        <v>695.2617003494884</v>
       </c>
       <c r="M12" t="n">
         <v>1108.425521012771</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.93320351744</v>
+        <v>1546.933203517441</v>
       </c>
       <c r="O12" t="n">
-        <v>1925.862268380988</v>
+        <v>1925.862268380989</v>
       </c>
       <c r="P12" t="n">
-        <v>2210.653183667179</v>
+        <v>2210.653183667181</v>
       </c>
       <c r="Q12" t="n">
-        <v>2351.109172113743</v>
+        <v>2351.109172113745</v>
       </c>
       <c r="R12" t="n">
-        <v>2342.436146872482</v>
+        <v>2342.436146872484</v>
       </c>
       <c r="S12" t="n">
-        <v>2256.268972105622</v>
+        <v>2210.446768050618</v>
       </c>
       <c r="T12" t="n">
-        <v>2063.07229493866</v>
+        <v>2017.250090883656</v>
       </c>
       <c r="U12" t="n">
-        <v>1834.995410910211</v>
+        <v>1789.173206855207</v>
       </c>
       <c r="V12" t="n">
-        <v>1599.843302678468</v>
+        <v>1554.021098623464</v>
       </c>
       <c r="W12" t="n">
-        <v>1345.605945950267</v>
+        <v>1299.783741895263</v>
       </c>
       <c r="X12" t="n">
-        <v>1137.754445744734</v>
+        <v>1091.93224168973</v>
       </c>
       <c r="Y12" t="n">
-        <v>929.9941469797802</v>
+        <v>884.1719429247762</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>664.9678990522968</v>
+        <v>606.2818437768658</v>
       </c>
       <c r="C13" t="n">
-        <v>541.8539201793957</v>
+        <v>483.1678649039647</v>
       </c>
       <c r="D13" t="n">
-        <v>541.8539201793957</v>
+        <v>378.8734295466347</v>
       </c>
       <c r="E13" t="n">
-        <v>439.7630306520083</v>
+        <v>276.7825400192473</v>
       </c>
       <c r="F13" t="n">
-        <v>338.6952872091038</v>
+        <v>175.7147965763426</v>
       </c>
       <c r="G13" t="n">
-        <v>216.6994925415628</v>
+        <v>175.7147965763426</v>
       </c>
       <c r="H13" t="n">
-        <v>115.2806140769254</v>
+        <v>74.29591811170516</v>
       </c>
       <c r="I13" t="n">
-        <v>60.31390260707285</v>
+        <v>60.31390260707289</v>
       </c>
       <c r="J13" t="n">
-        <v>142.3669419811937</v>
+        <v>142.3669419811939</v>
       </c>
       <c r="K13" t="n">
-        <v>378.1509821412426</v>
+        <v>378.1509821412429</v>
       </c>
       <c r="L13" t="n">
-        <v>722.8403768204937</v>
+        <v>722.840376820494</v>
       </c>
       <c r="M13" t="n">
         <v>1094.214820829983</v>
@@ -5212,7 +5212,7 @@
         <v>1463.261294603307</v>
       </c>
       <c r="O13" t="n">
-        <v>1791.547521749499</v>
+        <v>1791.5475217495</v>
       </c>
       <c r="P13" t="n">
         <v>2055.414205988137</v>
@@ -5227,22 +5227,22 @@
         <v>1971.426488614</v>
       </c>
       <c r="T13" t="n">
-        <v>1794.990021004763</v>
+        <v>1794.990021004764</v>
       </c>
       <c r="U13" t="n">
-        <v>1551.703076616471</v>
+        <v>1551.703076616472</v>
       </c>
       <c r="V13" t="n">
-        <v>1401.526847741022</v>
+        <v>1342.840792465591</v>
       </c>
       <c r="W13" t="n">
-        <v>1157.931881759067</v>
+        <v>1099.245826483636</v>
       </c>
       <c r="X13" t="n">
-        <v>975.7645349160551</v>
+        <v>917.0784796406242</v>
       </c>
       <c r="Y13" t="n">
-        <v>800.7941598275307</v>
+        <v>742.1081045520998</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1691.031503554083</v>
+        <v>1312.220311401669</v>
       </c>
       <c r="C14" t="n">
-        <v>1367.891190668677</v>
+        <v>989.0799985162637</v>
       </c>
       <c r="D14" t="n">
-        <v>1055.447696116932</v>
+        <v>676.6365039645196</v>
       </c>
       <c r="E14" t="n">
-        <v>1055.447696116932</v>
+        <v>676.6365039645196</v>
       </c>
       <c r="F14" t="n">
-        <v>690.2839953823301</v>
+        <v>429.8208828480724</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7770151413305</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="H14" t="n">
-        <v>66.3863402835691</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I14" t="n">
-        <v>60.31390260707288</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J14" t="n">
-        <v>227.8366650533162</v>
+        <v>227.8366650533167</v>
       </c>
       <c r="K14" t="n">
-        <v>529.6483784099289</v>
+        <v>529.6483784099296</v>
       </c>
       <c r="L14" t="n">
-        <v>940.9742587040278</v>
+        <v>940.9742587040287</v>
       </c>
       <c r="M14" t="n">
-        <v>1430.322991987625</v>
+        <v>1430.322991987626</v>
       </c>
       <c r="N14" t="n">
-        <v>1932.203707752933</v>
+        <v>1932.203707752934</v>
       </c>
       <c r="O14" t="n">
-        <v>2392.780174741102</v>
+        <v>2392.780174741104</v>
       </c>
       <c r="P14" t="n">
         <v>2751.370532643386</v>
       </c>
       <c r="Q14" t="n">
-        <v>2972.484210969448</v>
+        <v>2972.484210969449</v>
       </c>
       <c r="R14" t="n">
-        <v>3015.695130353644</v>
+        <v>3015.695130353645</v>
       </c>
       <c r="S14" t="n">
-        <v>3015.695130353644</v>
+        <v>2945.376336697668</v>
       </c>
       <c r="T14" t="n">
-        <v>2854.415733090636</v>
+        <v>2784.096939434661</v>
       </c>
       <c r="U14" t="n">
-        <v>2646.686921688198</v>
+        <v>2576.368128032223</v>
       </c>
       <c r="V14" t="n">
-        <v>2361.446238399633</v>
+        <v>2291.127444743658</v>
       </c>
       <c r="W14" t="n">
-        <v>2054.499787184525</v>
+        <v>1984.180993528549</v>
       </c>
       <c r="X14" t="n">
-        <v>2054.499787184525</v>
+        <v>1656.537439322475</v>
       </c>
       <c r="Y14" t="n">
-        <v>2031.809139563199</v>
+        <v>1312.220311401669</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.0962433109841</v>
+        <v>826.1579613315366</v>
       </c>
       <c r="C15" t="n">
-        <v>687.6432140298571</v>
+        <v>651.7049320504096</v>
       </c>
       <c r="D15" t="n">
-        <v>538.7088043686058</v>
+        <v>502.7705223891584</v>
       </c>
       <c r="E15" t="n">
-        <v>379.4713493631503</v>
+        <v>343.5330673837029</v>
       </c>
       <c r="F15" t="n">
-        <v>232.9367913900353</v>
+        <v>242.8207134655936</v>
       </c>
       <c r="G15" t="n">
-        <v>142.2585304021222</v>
+        <v>152.1424524776805</v>
       </c>
       <c r="H15" t="n">
-        <v>84.05064277117074</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I15" t="n">
-        <v>60.31390260707288</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J15" t="n">
-        <v>141.2714653172483</v>
+        <v>141.2714653172484</v>
       </c>
       <c r="K15" t="n">
-        <v>357.795659444732</v>
+        <v>357.7956594447323</v>
       </c>
       <c r="L15" t="n">
-        <v>695.2617003494879</v>
+        <v>695.2617003494884</v>
       </c>
       <c r="M15" t="n">
         <v>1108.425521012771</v>
       </c>
       <c r="N15" t="n">
-        <v>1546.93320351744</v>
+        <v>1546.933203517441</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.862268380988</v>
+        <v>1925.862268380989</v>
       </c>
       <c r="P15" t="n">
-        <v>2210.653183667179</v>
+        <v>2210.653183667181</v>
       </c>
       <c r="Q15" t="n">
-        <v>2351.109172113743</v>
+        <v>2351.109172113745</v>
       </c>
       <c r="R15" t="n">
-        <v>2351.109172113743</v>
+        <v>2342.436146872484</v>
       </c>
       <c r="S15" t="n">
-        <v>2219.119793291877</v>
+        <v>2256.268972105624</v>
       </c>
       <c r="T15" t="n">
-        <v>2071.74532017992</v>
+        <v>2063.072294938662</v>
       </c>
       <c r="U15" t="n">
-        <v>1843.668436151471</v>
+        <v>1880.817614965219</v>
       </c>
       <c r="V15" t="n">
-        <v>1608.516327919729</v>
+        <v>1664.222454050293</v>
       </c>
       <c r="W15" t="n">
-        <v>1354.278971191527</v>
+        <v>1409.985097322091</v>
       </c>
       <c r="X15" t="n">
-        <v>1146.427470985994</v>
+        <v>1202.133597116559</v>
       </c>
       <c r="Y15" t="n">
-        <v>984.4893762760463</v>
+        <v>994.3732983516047</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>769.2623344096262</v>
+        <v>606.2818437768653</v>
       </c>
       <c r="C16" t="n">
-        <v>646.148355536725</v>
+        <v>483.1678649039642</v>
       </c>
       <c r="D16" t="n">
-        <v>541.8539201793951</v>
+        <v>378.8734295466343</v>
       </c>
       <c r="E16" t="n">
-        <v>439.7630306520078</v>
+        <v>276.7825400192469</v>
       </c>
       <c r="F16" t="n">
-        <v>338.6952872091032</v>
+        <v>276.7825400192469</v>
       </c>
       <c r="G16" t="n">
-        <v>216.6994925415628</v>
+        <v>161.73278107171</v>
       </c>
       <c r="H16" t="n">
-        <v>115.2806140769254</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I16" t="n">
-        <v>60.31390260707288</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J16" t="n">
-        <v>142.3669419811937</v>
+        <v>142.3669419811938</v>
       </c>
       <c r="K16" t="n">
-        <v>378.1509821412426</v>
+        <v>378.1509821412427</v>
       </c>
       <c r="L16" t="n">
-        <v>722.8403768204936</v>
+        <v>722.8403768204939</v>
       </c>
       <c r="M16" t="n">
         <v>1094.214820829983</v>
@@ -5449,7 +5449,7 @@
         <v>1463.261294603307</v>
       </c>
       <c r="O16" t="n">
-        <v>1791.547521749499</v>
+        <v>1791.5475217495</v>
       </c>
       <c r="P16" t="n">
         <v>2055.414205988137</v>
@@ -5461,7 +5461,7 @@
         <v>2119.297130009048</v>
       </c>
       <c r="S16" t="n">
-        <v>1971.426488613999</v>
+        <v>1971.426488614</v>
       </c>
       <c r="T16" t="n">
         <v>1794.990021004763</v>
@@ -5470,16 +5470,16 @@
         <v>1551.703076616471</v>
       </c>
       <c r="V16" t="n">
-        <v>1342.840792465589</v>
+        <v>1342.84079246559</v>
       </c>
       <c r="W16" t="n">
         <v>1099.245826483635</v>
       </c>
       <c r="X16" t="n">
-        <v>917.078479640623</v>
+        <v>917.0784796406235</v>
       </c>
       <c r="Y16" t="n">
-        <v>769.2623344096262</v>
+        <v>742.1081045520992</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1740.227316732384</v>
+        <v>1464.536636795052</v>
       </c>
       <c r="C17" t="n">
-        <v>1464.536636795051</v>
+        <v>1464.536636795052</v>
       </c>
       <c r="D17" t="n">
-        <v>1199.54277519138</v>
+        <v>1199.542775191381</v>
       </c>
       <c r="E17" t="n">
-        <v>907.0263595962151</v>
+        <v>907.0263595962158</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3122918096867</v>
+        <v>589.3122918096873</v>
       </c>
       <c r="G17" t="n">
-        <v>267.2549445167609</v>
+        <v>267.2549445167611</v>
       </c>
       <c r="H17" t="n">
-        <v>60.31390260707288</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I17" t="n">
-        <v>60.31390260707288</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J17" t="n">
-        <v>227.8366650533163</v>
+        <v>227.8366650533171</v>
       </c>
       <c r="K17" t="n">
-        <v>529.6483784099291</v>
+        <v>529.64837840993</v>
       </c>
       <c r="L17" t="n">
-        <v>940.9742587040287</v>
+        <v>940.9742587040296</v>
       </c>
       <c r="M17" t="n">
         <v>1430.322991987626</v>
       </c>
       <c r="N17" t="n">
-        <v>1932.203707752933</v>
+        <v>1932.203707752935</v>
       </c>
       <c r="O17" t="n">
-        <v>2392.780174741103</v>
+        <v>2392.780174741104</v>
       </c>
       <c r="P17" t="n">
-        <v>2751.370532643386</v>
+        <v>2751.370532643387</v>
       </c>
       <c r="Q17" t="n">
-        <v>2972.484210969448</v>
+        <v>2972.48421096945</v>
       </c>
       <c r="R17" t="n">
-        <v>3015.695130353644</v>
+        <v>3015.695130353645</v>
       </c>
       <c r="S17" t="n">
-        <v>2992.82596964574</v>
+        <v>2992.825969645741</v>
       </c>
       <c r="T17" t="n">
-        <v>2878.996205330806</v>
+        <v>2878.996205330808</v>
       </c>
       <c r="U17" t="n">
-        <v>2718.717026876442</v>
+        <v>2718.717026876443</v>
       </c>
       <c r="V17" t="n">
-        <v>2480.92597653595</v>
+        <v>2480.925976535951</v>
       </c>
       <c r="W17" t="n">
-        <v>2221.429158268915</v>
+        <v>2221.429158268916</v>
       </c>
       <c r="X17" t="n">
-        <v>2037.094811705116</v>
+        <v>1941.235237010915</v>
       </c>
       <c r="Y17" t="n">
-        <v>1740.227316732384</v>
+        <v>1644.367742038183</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>809.2284429077874</v>
+        <v>809.228442907787</v>
       </c>
       <c r="C18" t="n">
-        <v>634.7754136266605</v>
+        <v>634.77541362666</v>
       </c>
       <c r="D18" t="n">
-        <v>485.8410039654092</v>
+        <v>485.8410039654087</v>
       </c>
       <c r="E18" t="n">
-        <v>365.6423786547331</v>
+        <v>326.6035489599532</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3796576846972</v>
+        <v>219.1078206816183</v>
       </c>
       <c r="G18" t="n">
         <v>175.8791926417784</v>
       </c>
       <c r="H18" t="n">
-        <v>84.05064277117071</v>
+        <v>84.05064277117074</v>
       </c>
       <c r="I18" t="n">
-        <v>60.31390260707288</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J18" t="n">
         <v>141.2714653172484</v>
@@ -5622,22 +5622,22 @@
         <v>2210.446768050618</v>
       </c>
       <c r="T18" t="n">
-        <v>2110.521927886735</v>
+        <v>2017.250090883656</v>
       </c>
       <c r="U18" t="n">
-        <v>1882.445043858286</v>
+        <v>1789.173206855207</v>
       </c>
       <c r="V18" t="n">
-        <v>1647.292935626544</v>
+        <v>1554.021098623464</v>
       </c>
       <c r="W18" t="n">
-        <v>1393.055578898342</v>
+        <v>1299.783741895263</v>
       </c>
       <c r="X18" t="n">
-        <v>1185.204078692809</v>
+        <v>1091.93224168973</v>
       </c>
       <c r="Y18" t="n">
-        <v>977.4437799278555</v>
+        <v>977.4437799278551</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.1149037731121</v>
+        <v>437.1149037731135</v>
       </c>
       <c r="C19" t="n">
-        <v>361.4505578482843</v>
+        <v>361.4505578482856</v>
       </c>
       <c r="D19" t="n">
-        <v>304.6057554390278</v>
+        <v>304.6057554390289</v>
       </c>
       <c r="E19" t="n">
-        <v>249.9644988597139</v>
+        <v>249.9644988597148</v>
       </c>
       <c r="F19" t="n">
-        <v>196.3463883648827</v>
+        <v>196.3463883648834</v>
       </c>
       <c r="G19" t="n">
-        <v>121.8002266454159</v>
+        <v>121.8002266454164</v>
       </c>
       <c r="H19" t="n">
-        <v>67.83098112885196</v>
+        <v>67.8309811288522</v>
       </c>
       <c r="I19" t="n">
-        <v>60.31390260707288</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J19" t="n">
-        <v>155.5724483241044</v>
+        <v>155.5724483241042</v>
       </c>
       <c r="K19" t="n">
-        <v>332.1855450553542</v>
+        <v>332.1855450553538</v>
       </c>
       <c r="L19" t="n">
-        <v>562.5303704608733</v>
+        <v>562.5303704608727</v>
       </c>
       <c r="M19" t="n">
-        <v>803.6856354224184</v>
+        <v>803.6856354224176</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.137954772132</v>
+        <v>1049.137954772131</v>
       </c>
       <c r="O19" t="n">
-        <v>1262.518317468508</v>
+        <v>1262.518317468506</v>
       </c>
       <c r="P19" t="n">
-        <v>1477.38471299329</v>
+        <v>1477.384712993294</v>
       </c>
       <c r="Q19" t="n">
-        <v>1572.269853324395</v>
+        <v>1572.269853324398</v>
       </c>
       <c r="R19" t="n">
-        <v>1570.533126420708</v>
+        <v>1570.533126420711</v>
       </c>
       <c r="S19" t="n">
-        <v>1470.112117973733</v>
+        <v>1470.112117973736</v>
       </c>
       <c r="T19" t="n">
-        <v>1341.12528331257</v>
+        <v>1341.125283312572</v>
       </c>
       <c r="U19" t="n">
-        <v>1145.287971872351</v>
+        <v>1145.287971872353</v>
       </c>
       <c r="V19" t="n">
-        <v>983.875320669543</v>
+        <v>983.8753206695453</v>
       </c>
       <c r="W19" t="n">
-        <v>787.7299876356616</v>
+        <v>787.7299876356637</v>
       </c>
       <c r="X19" t="n">
-        <v>653.0122737407235</v>
+        <v>653.0122737407254</v>
       </c>
       <c r="Y19" t="n">
-        <v>525.4915316002725</v>
+        <v>525.4915316002742</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1418.169969439458</v>
+        <v>1351.03973897714</v>
       </c>
       <c r="C20" t="n">
-        <v>1142.479289502126</v>
+        <v>1075.349059039807</v>
       </c>
       <c r="D20" t="n">
-        <v>877.4854278984544</v>
+        <v>810.3551974361358</v>
       </c>
       <c r="E20" t="n">
-        <v>584.9690123032894</v>
+        <v>517.8387818409706</v>
       </c>
       <c r="F20" t="n">
-        <v>267.254944516761</v>
+        <v>267.2549445167611</v>
       </c>
       <c r="G20" t="n">
-        <v>267.254944516761</v>
+        <v>267.2549445167611</v>
       </c>
       <c r="H20" t="n">
-        <v>60.31390260707289</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="I20" t="n">
-        <v>60.31390260707289</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J20" t="n">
-        <v>227.836665053316</v>
+        <v>227.8366650533171</v>
       </c>
       <c r="K20" t="n">
-        <v>529.6483784099289</v>
+        <v>529.64837840993</v>
       </c>
       <c r="L20" t="n">
-        <v>940.974258704028</v>
+        <v>940.9742587040291</v>
       </c>
       <c r="M20" t="n">
-        <v>1430.322991987625</v>
+        <v>1430.322991987626</v>
       </c>
       <c r="N20" t="n">
-        <v>1932.203707752934</v>
+        <v>1932.203707752935</v>
       </c>
       <c r="O20" t="n">
-        <v>2392.780174741103</v>
+        <v>2392.780174741104</v>
       </c>
       <c r="P20" t="n">
-        <v>2751.370532643386</v>
+        <v>2751.370532643387</v>
       </c>
       <c r="Q20" t="n">
-        <v>2972.484210969448</v>
+        <v>2972.48421096945</v>
       </c>
       <c r="R20" t="n">
-        <v>3015.695130353644</v>
+        <v>3015.695130353645</v>
       </c>
       <c r="S20" t="n">
-        <v>2992.825969645741</v>
+        <v>2992.825969645742</v>
       </c>
       <c r="T20" t="n">
         <v>2878.996205330807</v>
       </c>
       <c r="U20" t="n">
-        <v>2718.717026876442</v>
+        <v>2718.717026876443</v>
       </c>
       <c r="V20" t="n">
-        <v>2548.056206998269</v>
+        <v>2480.925976535951</v>
       </c>
       <c r="W20" t="n">
-        <v>2288.559388731234</v>
+        <v>2221.429158268916</v>
       </c>
       <c r="X20" t="n">
-        <v>2008.365467473233</v>
+        <v>1941.235237010916</v>
       </c>
       <c r="Y20" t="n">
-        <v>1711.497972500501</v>
+        <v>1644.367742038183</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>825.9738195709405</v>
+        <v>715.9566059047081</v>
       </c>
       <c r="C21" t="n">
-        <v>651.5207902898135</v>
+        <v>634.7754136266601</v>
       </c>
       <c r="D21" t="n">
-        <v>502.5863806285623</v>
+        <v>485.8410039654088</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3489256231068</v>
+        <v>326.6035489599533</v>
       </c>
       <c r="F21" t="n">
-        <v>196.8143676499917</v>
+        <v>180.0689909868383</v>
       </c>
       <c r="G21" t="n">
-        <v>60.31390260707289</v>
+        <v>84.05064277117074</v>
       </c>
       <c r="H21" t="n">
-        <v>60.31390260707289</v>
+        <v>84.05064277117074</v>
       </c>
       <c r="I21" t="n">
-        <v>60.31390260707289</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J21" t="n">
         <v>141.2714653172484</v>
@@ -5853,28 +5853,28 @@
         <v>2351.109172113745</v>
       </c>
       <c r="R21" t="n">
-        <v>2351.109172113745</v>
+        <v>2342.436146872484</v>
       </c>
       <c r="S21" t="n">
-        <v>2227.192144713772</v>
+        <v>2210.446768050618</v>
       </c>
       <c r="T21" t="n">
-        <v>2033.995467546809</v>
+        <v>2017.250090883656</v>
       </c>
       <c r="U21" t="n">
-        <v>1805.91858351836</v>
+        <v>1789.173206855207</v>
       </c>
       <c r="V21" t="n">
-        <v>1570.766475286618</v>
+        <v>1554.021098623464</v>
       </c>
       <c r="W21" t="n">
-        <v>1316.529118558416</v>
+        <v>1299.783741895263</v>
       </c>
       <c r="X21" t="n">
-        <v>1201.949455355962</v>
+        <v>1091.93224168973</v>
       </c>
       <c r="Y21" t="n">
-        <v>994.1891565910084</v>
+        <v>884.1719429247762</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.1149037731121</v>
+        <v>437.1149037731135</v>
       </c>
       <c r="C22" t="n">
-        <v>361.4505578482843</v>
+        <v>361.4505578482856</v>
       </c>
       <c r="D22" t="n">
-        <v>304.6057554390278</v>
+        <v>304.6057554390289</v>
       </c>
       <c r="E22" t="n">
-        <v>249.9644988597139</v>
+        <v>249.9644988597148</v>
       </c>
       <c r="F22" t="n">
-        <v>196.3463883648827</v>
+        <v>196.3463883648834</v>
       </c>
       <c r="G22" t="n">
-        <v>121.8002266454159</v>
+        <v>121.8002266454164</v>
       </c>
       <c r="H22" t="n">
-        <v>67.83098112885197</v>
+        <v>67.8309811288522</v>
       </c>
       <c r="I22" t="n">
-        <v>60.31390260707289</v>
+        <v>60.3139026070729</v>
       </c>
       <c r="J22" t="n">
-        <v>155.5724483241044</v>
+        <v>155.5724483241042</v>
       </c>
       <c r="K22" t="n">
-        <v>332.1855450553543</v>
+        <v>332.1855450553538</v>
       </c>
       <c r="L22" t="n">
-        <v>562.5303704608734</v>
+        <v>562.5303704608727</v>
       </c>
       <c r="M22" t="n">
-        <v>803.6856354224185</v>
+        <v>803.6856354224176</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.137954772132</v>
+        <v>1049.137954772131</v>
       </c>
       <c r="O22" t="n">
-        <v>1262.518317468508</v>
+        <v>1300.66914118315</v>
       </c>
       <c r="P22" t="n">
-        <v>1477.38471299329</v>
+        <v>1477.384712993294</v>
       </c>
       <c r="Q22" t="n">
-        <v>1572.269853324395</v>
+        <v>1572.269853324398</v>
       </c>
       <c r="R22" t="n">
-        <v>1570.533126420708</v>
+        <v>1570.533126420711</v>
       </c>
       <c r="S22" t="n">
-        <v>1470.112117973733</v>
+        <v>1470.112117973736</v>
       </c>
       <c r="T22" t="n">
-        <v>1341.12528331257</v>
+        <v>1341.125283312572</v>
       </c>
       <c r="U22" t="n">
-        <v>1145.287971872351</v>
+        <v>1145.287971872353</v>
       </c>
       <c r="V22" t="n">
-        <v>983.875320669543</v>
+        <v>983.8753206695453</v>
       </c>
       <c r="W22" t="n">
-        <v>787.7299876356616</v>
+        <v>787.7299876356637</v>
       </c>
       <c r="X22" t="n">
-        <v>653.0122737407235</v>
+        <v>653.0122737407254</v>
       </c>
       <c r="Y22" t="n">
-        <v>525.4915316002725</v>
+        <v>525.4915316002742</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>1745.082260058034</v>
       </c>
       <c r="C23" t="n">
-        <v>1469.391580120702</v>
+        <v>1469.391580120701</v>
       </c>
       <c r="D23" t="n">
         <v>1204.39771851703</v>
       </c>
       <c r="E23" t="n">
-        <v>911.8813029218652</v>
+        <v>911.8813029218644</v>
       </c>
       <c r="F23" t="n">
-        <v>594.1672351353368</v>
+        <v>594.1672351353359</v>
       </c>
       <c r="G23" t="n">
-        <v>272.3666219834125</v>
+        <v>272.3666219834127</v>
       </c>
       <c r="H23" t="n">
-        <v>68.05485859525891</v>
+        <v>68.05485859525893</v>
       </c>
       <c r="I23" t="n">
-        <v>68.05485859525891</v>
+        <v>68.05485859525893</v>
       </c>
       <c r="J23" t="n">
-        <v>332.5283555449833</v>
+        <v>332.5283555449842</v>
       </c>
       <c r="K23" t="n">
-        <v>666.3477292348298</v>
+        <v>666.3477292348307</v>
       </c>
       <c r="L23" t="n">
-        <v>1117.381942483239</v>
+        <v>1117.38194248324</v>
       </c>
       <c r="M23" t="n">
-        <v>1650.913847155163</v>
+        <v>1650.913847155164</v>
       </c>
       <c r="N23" t="n">
-        <v>2197.692664213946</v>
+        <v>2197.692664213947</v>
       </c>
       <c r="O23" t="n">
         <v>2700.665135093283</v>
       </c>
       <c r="P23" t="n">
-        <v>3095.439501450461</v>
+        <v>3095.439501450462</v>
       </c>
       <c r="Q23" t="n">
-        <v>3343.725863206143</v>
+        <v>3343.725863206144</v>
       </c>
       <c r="R23" t="n">
         <v>3402.742929762946</v>
@@ -6032,7 +6032,7 @@
         <v>2335.277758091809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2038.410263119077</v>
+        <v>2038.410263119076</v>
       </c>
     </row>
     <row r="24">
@@ -6054,25 +6054,25 @@
         <v>460.4617026963503</v>
       </c>
       <c r="F24" t="n">
-        <v>313.9271447232353</v>
+        <v>313.9271447232354</v>
       </c>
       <c r="G24" t="n">
-        <v>177.5640445558534</v>
+        <v>177.5640445558535</v>
       </c>
       <c r="H24" t="n">
-        <v>87.06215019372092</v>
+        <v>87.06215019372098</v>
       </c>
       <c r="I24" t="n">
-        <v>68.05485859525891</v>
+        <v>68.05485859525893</v>
       </c>
       <c r="J24" t="n">
-        <v>161.7321280858762</v>
+        <v>161.7321280858763</v>
       </c>
       <c r="K24" t="n">
         <v>399.9963270662234</v>
       </c>
       <c r="L24" t="n">
-        <v>766.6944873788888</v>
+        <v>766.6944873788889</v>
       </c>
       <c r="M24" t="n">
         <v>1213.970812601205</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.253563583329</v>
+        <v>440.2535635833295</v>
       </c>
       <c r="C25" t="n">
-        <v>364.5892176585012</v>
+        <v>364.5892176585017</v>
       </c>
       <c r="D25" t="n">
-        <v>307.7444152492446</v>
+        <v>307.744415249245</v>
       </c>
       <c r="E25" t="n">
-        <v>253.1031586699306</v>
+        <v>253.103158669931</v>
       </c>
       <c r="F25" t="n">
-        <v>199.4850481750994</v>
+        <v>199.4850481750997</v>
       </c>
       <c r="G25" t="n">
-        <v>125.0540485528975</v>
+        <v>125.0540485528977</v>
       </c>
       <c r="H25" t="n">
-        <v>72.10869877383442</v>
+        <v>72.10869877383453</v>
       </c>
       <c r="I25" t="n">
-        <v>68.05485859525891</v>
+        <v>68.05485859525893</v>
       </c>
       <c r="J25" t="n">
         <v>171.2933395794162</v>
       </c>
       <c r="K25" t="n">
-        <v>275.0579445867647</v>
+        <v>361.0199212938043</v>
       </c>
       <c r="L25" t="n">
-        <v>522.1835159558399</v>
+        <v>608.1454926628794</v>
       </c>
       <c r="M25" t="n">
-        <v>781.0317247017556</v>
+        <v>866.993701408795</v>
       </c>
       <c r="N25" t="n">
-        <v>1043.756289178321</v>
+        <v>1129.71826588536</v>
       </c>
       <c r="O25" t="n">
-        <v>1273.090365843228</v>
+        <v>1273.09036584323</v>
       </c>
       <c r="P25" t="n">
-        <v>1463.457096042705</v>
+        <v>1463.457096042707</v>
       </c>
       <c r="Q25" t="n">
-        <v>1567.793590847964</v>
+        <v>1567.793590847965</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.166487151334</v>
+        <v>1571.166487151336</v>
       </c>
       <c r="S25" t="n">
-        <v>1472.75243998124</v>
+        <v>1472.752439981241</v>
       </c>
       <c r="T25" t="n">
-        <v>1344.257661553845</v>
+        <v>1344.257661553846</v>
       </c>
       <c r="U25" t="n">
-        <v>1148.426631682568</v>
+        <v>1148.426631682569</v>
       </c>
       <c r="V25" t="n">
-        <v>987.0139804797601</v>
+        <v>987.0139804797611</v>
       </c>
       <c r="W25" t="n">
-        <v>790.8686474458787</v>
+        <v>790.8686474458796</v>
       </c>
       <c r="X25" t="n">
-        <v>656.1509335509404</v>
+        <v>656.1509335509412</v>
       </c>
       <c r="Y25" t="n">
-        <v>528.6301914104895</v>
+        <v>528.6301914104902</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
@@ -6218,10 +6218,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>86.49114167389909</v>
+        <v>86.49114167389911</v>
       </c>
       <c r="J26" t="n">
         <v>321.8756578853312</v>
@@ -6230,13 +6230,13 @@
         <v>702.2004168275844</v>
       </c>
       <c r="L26" t="n">
-        <v>1492.952546040312</v>
+        <v>1199.7400153284</v>
       </c>
       <c r="M26" t="n">
-        <v>2072.989835964643</v>
+        <v>1779.777305252731</v>
       </c>
       <c r="N26" t="n">
-        <v>2666.274038275832</v>
+        <v>2373.06150756392</v>
       </c>
       <c r="O26" t="n">
         <v>3215.751894407575</v>
@@ -6251,13 +6251,13 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6379,19 +6379,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982174</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,7 +6403,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277852</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>86.49114167389909</v>
+        <v>86.49114167389914</v>
       </c>
       <c r="J29" t="n">
         <v>321.8756578853312</v>
@@ -6473,13 +6473,13 @@
         <v>1779.777305252731</v>
       </c>
       <c r="N29" t="n">
-        <v>2373.06150756392</v>
+        <v>2666.274038275832</v>
       </c>
       <c r="O29" t="n">
-        <v>3005.560053654269</v>
+        <v>3215.751894407575</v>
       </c>
       <c r="P29" t="n">
-        <v>3446.839805263854</v>
+        <v>3657.03164601716</v>
       </c>
       <c r="Q29" t="n">
         <v>3951.823393025249</v>
@@ -6488,13 +6488,13 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6546,13 +6546,13 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6604,19 +6604,19 @@
         <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6680,28 +6680,28 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>86.49114167389912</v>
+        <v>86.49114167389911</v>
       </c>
       <c r="J32" t="n">
         <v>321.8756578853312</v>
       </c>
       <c r="K32" t="n">
-        <v>702.2004168275844</v>
+        <v>995.4129475394965</v>
       </c>
       <c r="L32" t="n">
         <v>1492.952546040312</v>
@@ -6725,10 +6725,10 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,10 +6740,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
@@ -6853,7 +6853,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6871,10 +6871,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6929,43 +6929,43 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226756</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155309</v>
+        <v>155.2189959588257</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090251</v>
+        <v>253.5298502264961</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572062</v>
+        <v>505.9475671746773</v>
       </c>
       <c r="M37" t="n">
-        <v>791.230645356404</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N37" t="n">
-        <v>1038.104631555371</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O37" t="n">
         <v>1272.730853799384</v>
       </c>
       <c r="P37" t="n">
-        <v>1468.389729577967</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W37" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226756</v>
       </c>
       <c r="J40" t="n">
-        <v>79.65384678970706</v>
+        <v>79.65384678970702</v>
       </c>
       <c r="K40" t="n">
-        <v>274.6725740832014</v>
+        <v>253.5298502264967</v>
       </c>
       <c r="L40" t="n">
-        <v>430.3824180055586</v>
+        <v>505.9475671746778</v>
       </c>
       <c r="M40" t="n">
-        <v>694.5227723305803</v>
+        <v>770.0879214996994</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862517</v>
+        <v>941.3967585295469</v>
       </c>
       <c r="O40" t="n">
         <v>1176.02298077356</v>
@@ -7351,31 +7351,31 @@
         <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,7 +7409,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810548</v>
@@ -7445,16 +7445,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7567,22 +7567,22 @@
         <v>67.83109325226768</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155311</v>
+        <v>79.65384678970713</v>
       </c>
       <c r="K43" t="n">
-        <v>350.2377232523185</v>
+        <v>274.6725740832015</v>
       </c>
       <c r="L43" t="n">
-        <v>602.6554402004997</v>
+        <v>527.0902910313828</v>
       </c>
       <c r="M43" t="n">
-        <v>866.7957945255215</v>
+        <v>770.0879214996976</v>
       </c>
       <c r="N43" t="n">
         <v>1038.104631555369</v>
       </c>
       <c r="O43" t="n">
-        <v>1272.730853799383</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P43" t="n">
         <v>1371.681856552141</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307324</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7691,7 +7691,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7804,28 +7804,28 @@
         <v>67.83109325226768</v>
       </c>
       <c r="J46" t="n">
-        <v>176.3617198155311</v>
+        <v>79.65384678970713</v>
       </c>
       <c r="K46" t="n">
-        <v>274.6725740832015</v>
+        <v>262.1948921089717</v>
       </c>
       <c r="L46" t="n">
-        <v>527.0902910313828</v>
+        <v>514.6126090571529</v>
       </c>
       <c r="M46" t="n">
-        <v>791.2306453564046</v>
+        <v>778.7529633821747</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.247355412076</v>
+        <v>950.0618004120222</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799382</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577965</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818983</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>38.53618557034233</v>
+        <v>38.53618557034736</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9571,10 +9571,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>38.53618557034733</v>
       </c>
       <c r="P22" t="n">
-        <v>38.53618557034233</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>296.1742734463754</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>296.1742734463759</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10036,7 +10036,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415541</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
         <v>178.5096609094456</v>
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>296.1742734463759</v>
       </c>
       <c r="O29" t="n">
-        <v>83.85928278647054</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>296.174273446376</v>
       </c>
       <c r="L32" t="n">
-        <v>296.1742734463754</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10519,7 +10519,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658817</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>140.6372620141798</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>319.9089097565519</v>
       </c>
       <c r="D11" t="n">
-        <v>309.3190596062273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>282.1419769338981</v>
+        <v>336.5663880578061</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.6515232884136</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.2514910037567</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.7758367208648</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.57484900556804</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>58.09919472267763</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>337.3698596490249</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>336.5663880578061</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>117.164598821973</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>251.8467681091838</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.011713299731269</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.6156057194172</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>324.3671186640133</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>318.4102154964848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.4679981674816</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>100.0570660084755</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6.876575362803266</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.41704435515399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.88268755895225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>290.3947230304321</v>
+        <v>112.3619288397337</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>272.9337731379593</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>94.90097894725989</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>66.45892815769815</v>
       </c>
       <c r="G20" t="n">
-        <v>318.8367738199968</v>
+        <v>318.836773819997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>66.45892815769501</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-4.366401193155653e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-2.495424341204435e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857751.7307337407</v>
+        <v>857751.7307337408</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857751.730733741</v>
+        <v>857751.7307337411</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>909459.8661457592</v>
+        <v>909459.8661457589</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>971782.6430348499</v>
+        <v>971782.64303485</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>971782.6430348499</v>
+        <v>971782.64303485</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>944198.0353439263</v>
+        <v>944198.0353439265</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="C2" t="n">
         <v>491565.803230223</v>
@@ -26323,34 +26323,34 @@
         <v>440203.3145418038</v>
       </c>
       <c r="F2" t="n">
-        <v>440203.314541804</v>
+        <v>440203.3145418038</v>
       </c>
       <c r="G2" t="n">
-        <v>474223.3391921151</v>
+        <v>474223.3391921148</v>
       </c>
       <c r="H2" t="n">
-        <v>474223.3391921151</v>
+        <v>474223.3391921148</v>
       </c>
       <c r="I2" t="n">
-        <v>492625.0619185694</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="J2" t="n">
-        <v>492625.0619185694</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="K2" t="n">
         <v>492625.0619185699</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185695</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185705</v>
+        <v>492625.0619185706</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185705</v>
+        <v>492625.0619185706</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185706</v>
+        <v>492625.0619185708</v>
       </c>
       <c r="P2" t="n">
         <v>492625.0619185705</v>
@@ -26372,37 +26372,37 @@
         <v>201068.9115716352</v>
       </c>
       <c r="E3" t="n">
-        <v>897508.7800239787</v>
+        <v>897508.7800239791</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487451</v>
+        <v>37580.10929487399</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73322.83076787074</v>
+        <v>73322.83076787082</v>
       </c>
       <c r="J3" t="n">
-        <v>42818.23127774264</v>
+        <v>42818.23127774265</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487416</v>
+        <v>37580.10929487397</v>
       </c>
       <c r="M3" t="n">
-        <v>182860.3540168136</v>
+        <v>182860.3540168137</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>385783.8405692248</v>
       </c>
       <c r="E4" t="n">
-        <v>65842.91089474873</v>
+        <v>65842.91089474867</v>
       </c>
       <c r="F4" t="n">
-        <v>65842.91089474873</v>
+        <v>65842.91089474867</v>
       </c>
       <c r="G4" t="n">
-        <v>97920.21952056965</v>
+        <v>97920.21952056955</v>
       </c>
       <c r="H4" t="n">
-        <v>97920.21952056966</v>
+        <v>97920.21952056953</v>
       </c>
       <c r="I4" t="n">
-        <v>93877.1191301348</v>
+        <v>93877.11913013479</v>
       </c>
       <c r="J4" t="n">
         <v>94970.87945926859</v>
       </c>
       <c r="K4" t="n">
-        <v>94970.87945926859</v>
+        <v>94970.87945926865</v>
       </c>
       <c r="L4" t="n">
-        <v>94970.8794592686</v>
+        <v>94970.87945926862</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657696</v>
       </c>
       <c r="O4" t="n">
         <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657702</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>72031.11964579637</v>
+        <v>72031.1196457964</v>
       </c>
       <c r="F5" t="n">
-        <v>72031.11964579638</v>
+        <v>72031.1196457964</v>
       </c>
       <c r="G5" t="n">
-        <v>75980.27240618487</v>
+        <v>75980.27240618486</v>
       </c>
       <c r="H5" t="n">
-        <v>75980.27240618487</v>
+        <v>75980.27240618486</v>
       </c>
       <c r="I5" t="n">
         <v>83241.68196969242</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.75670150821</v>
+        <v>-9682.170279376205</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.75670150821</v>
+        <v>-9682.17027937638</v>
       </c>
       <c r="D6" t="n">
-        <v>-133987.6759744634</v>
+        <v>-133991.901728301</v>
       </c>
       <c r="E6" t="n">
-        <v>-595179.49602272</v>
+        <v>-595397.9199701236</v>
       </c>
       <c r="F6" t="n">
-        <v>302329.2840012589</v>
+        <v>302110.8600538556</v>
       </c>
       <c r="G6" t="n">
-        <v>262742.7379704861</v>
+        <v>262666.0641257928</v>
       </c>
       <c r="H6" t="n">
-        <v>300322.8472653606</v>
+        <v>300246.1734206668</v>
       </c>
       <c r="I6" t="n">
-        <v>242183.4300508715</v>
+        <v>242183.4300508716</v>
       </c>
       <c r="J6" t="n">
-        <v>265458.009506752</v>
+        <v>265458.0095067524</v>
       </c>
       <c r="K6" t="n">
-        <v>308276.2407844952</v>
+        <v>308276.2407844951</v>
       </c>
       <c r="L6" t="n">
-        <v>270696.1314896206</v>
+        <v>270696.1314896211</v>
       </c>
       <c r="M6" t="n">
         <v>133471.9727689301</v>
       </c>
       <c r="N6" t="n">
-        <v>316332.3267857437</v>
+        <v>316332.3267857438</v>
       </c>
       <c r="O6" t="n">
         <v>316332.3267857438</v>
       </c>
       <c r="P6" t="n">
-        <v>316332.3267857436</v>
+        <v>316332.3267857437</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="F2" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="G2" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="H2" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="I2" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810495</v>
+      </c>
+      <c r="N2" t="n">
         <v>97.68472022810489</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810502</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884106</v>
+        <v>753.9237825884111</v>
       </c>
       <c r="F4" t="n">
-        <v>753.923782588411</v>
+        <v>753.9237825884112</v>
       </c>
       <c r="G4" t="n">
-        <v>753.923782588411</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="H4" t="n">
-        <v>753.9237825884111</v>
+        <v>753.9237825884113</v>
       </c>
       <c r="I4" t="n">
-        <v>850.6857324407364</v>
+        <v>850.6857324407366</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859246</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951231</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>791.7726710688553</v>
+        <v>791.7726710688557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884106</v>
+        <v>753.9237825884111</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>96.7619498523253</v>
       </c>
       <c r="J4" t="n">
-        <v>163.650728767878</v>
+        <v>163.6507287678779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>570.9887767820891</v>
+        <v>570.9887767820892</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>753.9237825884106</v>
+        <v>753.9237825884111</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="C11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="D11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="E11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="F11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="G11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="H11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="I11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="T11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="U11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="V11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="W11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="X11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="E12" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>41.87075060610736</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="H12" t="n">
-        <v>45.36398201445571</v>
+        <v>18.3713778436488</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.49937276245686</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="C13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="D13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="E13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="F13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="G13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="H13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="I13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="J13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="K13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="L13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="M13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="N13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="O13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="P13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="R13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="S13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="T13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="U13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="V13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="W13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="X13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="C14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="D14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="E14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="F14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="G14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="H14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="I14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="T14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="U14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="V14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="W14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="X14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="Y14" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="G15" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="H15" t="n">
-        <v>33.28445561725962</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.49937276245686</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,19 +28451,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.586294988847953</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="T15" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>18.3713778436487</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.36398201445571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="C16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="D16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="E16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="F16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="G16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="H16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="I16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="J16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="K16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="L16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="M16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="N16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="O16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="P16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="R16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="S16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="T16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="U16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="V16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="W16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="X16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.36398201445571</v>
+        <v>45.3639820144557</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="C17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="D17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="E17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="F17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="G17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="H17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="I17" t="n">
         <v>51.37569531418697</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="T17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="U17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="V17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="W17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="X17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="Y17" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
     </row>
     <row r="18">
@@ -28649,13 +28649,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>38.6484413978316</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.3391186330484</v>
+        <v>38.64844139783226</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>92.3391186330484</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>92.33911863304819</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="C19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="D19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="E19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="F19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="G19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="H19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="I19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="J19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="K19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="L19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="M19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="N19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="O19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="P19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="Q19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="R19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="S19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="T19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="U19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="V19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="W19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="X19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="C20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="D20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="E20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="F20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="G20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="H20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="I20" t="n">
         <v>51.37569531418697</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="T20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="U20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="V20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="W20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="X20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>40.07729565897876</v>
       </c>
       <c r="H21" t="n">
         <v>90.91026437190156</v>
       </c>
       <c r="I21" t="n">
-        <v>23.49937276245686</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.586294988847897</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>7.991627907674129</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>92.3391186330484</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="C22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="D22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="E22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="F22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="G22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="H22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="I22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="J22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="K22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="L22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="M22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="N22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="O22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="P22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="Q22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="R22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="S22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="T22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="U22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="V22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="W22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="X22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
       <c r="Y22" t="n">
-        <v>92.3391186330484</v>
+        <v>92.33911863304819</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="C23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="D23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="E23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="F23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="G23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="H23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
-        <v>76.35794544515045</v>
+        <v>76.3579454451513</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="T23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="U23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="V23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="W23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="X23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="Y23" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="C25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="D25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="E25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="F25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="G25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="H25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="I25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="K25" t="n">
-        <v>5.508839130988008</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="L25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="M25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="N25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="O25" t="n">
-        <v>92.33911863304834</v>
+        <v>5.508839130989912</v>
       </c>
       <c r="P25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="Q25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="R25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="S25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="T25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="U25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="V25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="W25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="X25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.33911863304834</v>
+        <v>92.33911863304826</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350416027</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N37" t="n">
-        <v>76.3284335041609</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810495</v>
+        <v>76.3284335041609</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>76.32843350416013</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30481,10 +30481,10 @@
         <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30639,25 +30639,25 @@
         <v>97.68472022810502</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="K43" t="n">
-        <v>76.32843350415857</v>
       </c>
       <c r="L43" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="M43" t="n">
+        <v>76.3284335041586</v>
+      </c>
+      <c r="N43" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>97.68472022810502</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30876,10 +30876,10 @@
         <v>97.68472022810502</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>85.08100106221633</v>
       </c>
       <c r="L46" t="n">
         <v>97.68472022810502</v>
@@ -30888,19 +30888,19 @@
         <v>97.68472022810502</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="O46" t="n">
-        <v>76.32843350415817</v>
       </c>
       <c r="P46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810502</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810502</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.126845062089844</v>
+        <v>4.126845062089846</v>
       </c>
       <c r="H11" t="n">
-        <v>42.26405199212763</v>
+        <v>42.26405199212765</v>
       </c>
       <c r="I11" t="n">
         <v>159.1001942562189</v>
       </c>
       <c r="J11" t="n">
-        <v>350.2608160885482</v>
+        <v>350.2608160885484</v>
       </c>
       <c r="K11" t="n">
-        <v>524.9501675668114</v>
+        <v>524.9501675668116</v>
       </c>
       <c r="L11" t="n">
-        <v>651.2471021357436</v>
+        <v>651.2471021357439</v>
       </c>
       <c r="M11" t="n">
-        <v>724.6378830086838</v>
+        <v>724.6378830086842</v>
       </c>
       <c r="N11" t="n">
-        <v>736.3632815413467</v>
+        <v>736.3632815413471</v>
       </c>
       <c r="O11" t="n">
-        <v>695.3269659551908</v>
+        <v>695.3269659551911</v>
       </c>
       <c r="P11" t="n">
-        <v>593.4454784848476</v>
+        <v>593.445478484848</v>
       </c>
       <c r="Q11" t="n">
-        <v>445.652839698755</v>
+        <v>445.6528396987551</v>
       </c>
       <c r="R11" t="n">
-        <v>259.2329311315014</v>
+        <v>259.2329311315015</v>
       </c>
       <c r="S11" t="n">
-        <v>94.04048185237242</v>
+        <v>94.04048185237247</v>
       </c>
       <c r="T11" t="n">
-        <v>18.0652642592983</v>
+        <v>18.06526425929831</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3301476049671875</v>
+        <v>0.3301476049671876</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.208056770720997</v>
+        <v>2.208056770720998</v>
       </c>
       <c r="H12" t="n">
         <v>21.3251798645949</v>
       </c>
       <c r="I12" t="n">
-        <v>76.02300723754311</v>
+        <v>76.02300723754314</v>
       </c>
       <c r="J12" t="n">
-        <v>208.6129425355307</v>
+        <v>208.6129425355308</v>
       </c>
       <c r="K12" t="n">
-        <v>356.5527461738375</v>
+        <v>356.5527461738377</v>
       </c>
       <c r="L12" t="n">
-        <v>479.4291685725569</v>
+        <v>479.4291685725571</v>
       </c>
       <c r="M12" t="n">
-        <v>559.4712265111929</v>
+        <v>559.4712265111932</v>
       </c>
       <c r="N12" t="n">
-        <v>574.2787651183527</v>
+        <v>574.2787651183529</v>
       </c>
       <c r="O12" t="n">
-        <v>525.3528756197453</v>
+        <v>525.3528756197455</v>
       </c>
       <c r="P12" t="n">
-        <v>421.6419986125034</v>
+        <v>421.6419986125036</v>
       </c>
       <c r="Q12" t="n">
-        <v>281.8565098906312</v>
+        <v>281.8565098906313</v>
       </c>
       <c r="R12" t="n">
-        <v>137.093208975116</v>
+        <v>137.0932089751161</v>
       </c>
       <c r="S12" t="n">
-        <v>41.01368607019042</v>
+        <v>41.01368607019045</v>
       </c>
       <c r="T12" t="n">
-        <v>8.900018299528927</v>
+        <v>8.900018299528933</v>
       </c>
       <c r="U12" t="n">
         <v>0.145266892810592</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.851160623138253</v>
+        <v>1.851160623138254</v>
       </c>
       <c r="H13" t="n">
-        <v>16.45850081299284</v>
+        <v>16.45850081299285</v>
       </c>
       <c r="I13" t="n">
-        <v>55.66944855764857</v>
+        <v>55.66944855764859</v>
       </c>
       <c r="J13" t="n">
         <v>130.8770560558745</v>
       </c>
       <c r="K13" t="n">
-        <v>215.0712069427897</v>
+        <v>215.0712069427898</v>
       </c>
       <c r="L13" t="n">
-        <v>275.2170984618454</v>
+        <v>275.2170984618455</v>
       </c>
       <c r="M13" t="n">
-        <v>290.1778420433899</v>
+        <v>290.1778420433901</v>
       </c>
       <c r="N13" t="n">
-        <v>283.2780615389657</v>
+        <v>283.2780615389659</v>
       </c>
       <c r="O13" t="n">
-        <v>261.6531397141234</v>
+        <v>261.6531397141235</v>
       </c>
       <c r="P13" t="n">
-        <v>223.8894630021028</v>
+        <v>223.8894630021029</v>
       </c>
       <c r="Q13" t="n">
         <v>155.0094590884223</v>
       </c>
       <c r="R13" t="n">
-        <v>83.23491310947088</v>
+        <v>83.23491310947092</v>
       </c>
       <c r="S13" t="n">
-        <v>32.26068104141845</v>
+        <v>32.26068104141847</v>
       </c>
       <c r="T13" t="n">
-        <v>7.909504480681624</v>
+        <v>7.909504480681628</v>
       </c>
       <c r="U13" t="n">
         <v>0.100972397625723</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.126845062089844</v>
+        <v>4.126845062089846</v>
       </c>
       <c r="H14" t="n">
-        <v>42.26405199212763</v>
+        <v>42.26405199212765</v>
       </c>
       <c r="I14" t="n">
         <v>159.1001942562189</v>
       </c>
       <c r="J14" t="n">
-        <v>350.2608160885482</v>
+        <v>350.2608160885484</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9501675668114</v>
+        <v>524.9501675668116</v>
       </c>
       <c r="L14" t="n">
-        <v>651.2471021357436</v>
+        <v>651.2471021357439</v>
       </c>
       <c r="M14" t="n">
-        <v>724.6378830086838</v>
+        <v>724.6378830086842</v>
       </c>
       <c r="N14" t="n">
-        <v>736.3632815413467</v>
+        <v>736.3632815413471</v>
       </c>
       <c r="O14" t="n">
-        <v>695.3269659551908</v>
+        <v>695.3269659551911</v>
       </c>
       <c r="P14" t="n">
-        <v>593.4454784848476</v>
+        <v>593.445478484848</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.652839698755</v>
+        <v>445.6528396987551</v>
       </c>
       <c r="R14" t="n">
-        <v>259.2329311315014</v>
+        <v>259.2329311315015</v>
       </c>
       <c r="S14" t="n">
-        <v>94.04048185237242</v>
+        <v>94.04048185237247</v>
       </c>
       <c r="T14" t="n">
-        <v>18.0652642592983</v>
+        <v>18.06526425929831</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3301476049671875</v>
+        <v>0.3301476049671876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.208056770720997</v>
+        <v>2.208056770720998</v>
       </c>
       <c r="H15" t="n">
         <v>21.3251798645949</v>
       </c>
       <c r="I15" t="n">
-        <v>76.02300723754311</v>
+        <v>76.02300723754314</v>
       </c>
       <c r="J15" t="n">
-        <v>208.6129425355307</v>
+        <v>208.6129425355308</v>
       </c>
       <c r="K15" t="n">
-        <v>356.5527461738375</v>
+        <v>356.5527461738377</v>
       </c>
       <c r="L15" t="n">
-        <v>479.4291685725569</v>
+        <v>479.4291685725571</v>
       </c>
       <c r="M15" t="n">
-        <v>559.4712265111929</v>
+        <v>559.4712265111932</v>
       </c>
       <c r="N15" t="n">
-        <v>574.2787651183527</v>
+        <v>574.2787651183529</v>
       </c>
       <c r="O15" t="n">
-        <v>525.3528756197453</v>
+        <v>525.3528756197455</v>
       </c>
       <c r="P15" t="n">
-        <v>421.6419986125034</v>
+        <v>421.6419986125036</v>
       </c>
       <c r="Q15" t="n">
-        <v>281.8565098906312</v>
+        <v>281.8565098906313</v>
       </c>
       <c r="R15" t="n">
-        <v>137.093208975116</v>
+        <v>137.0932089751161</v>
       </c>
       <c r="S15" t="n">
-        <v>41.01368607019042</v>
+        <v>41.01368607019045</v>
       </c>
       <c r="T15" t="n">
-        <v>8.900018299528927</v>
+        <v>8.900018299528933</v>
       </c>
       <c r="U15" t="n">
         <v>0.145266892810592</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.851160623138253</v>
+        <v>1.851160623138254</v>
       </c>
       <c r="H16" t="n">
-        <v>16.45850081299284</v>
+        <v>16.45850081299285</v>
       </c>
       <c r="I16" t="n">
-        <v>55.66944855764857</v>
+        <v>55.66944855764859</v>
       </c>
       <c r="J16" t="n">
         <v>130.8770560558745</v>
       </c>
       <c r="K16" t="n">
-        <v>215.0712069427897</v>
+        <v>215.0712069427898</v>
       </c>
       <c r="L16" t="n">
-        <v>275.2170984618454</v>
+        <v>275.2170984618455</v>
       </c>
       <c r="M16" t="n">
-        <v>290.1778420433899</v>
+        <v>290.1778420433901</v>
       </c>
       <c r="N16" t="n">
-        <v>283.2780615389657</v>
+        <v>283.2780615389659</v>
       </c>
       <c r="O16" t="n">
-        <v>261.6531397141234</v>
+        <v>261.6531397141235</v>
       </c>
       <c r="P16" t="n">
-        <v>223.8894630021028</v>
+        <v>223.8894630021029</v>
       </c>
       <c r="Q16" t="n">
         <v>155.0094590884223</v>
       </c>
       <c r="R16" t="n">
-        <v>83.23491310947088</v>
+        <v>83.23491310947092</v>
       </c>
       <c r="S16" t="n">
-        <v>32.26068104141845</v>
+        <v>32.26068104141847</v>
       </c>
       <c r="T16" t="n">
-        <v>7.909504480681624</v>
+        <v>7.909504480681628</v>
       </c>
       <c r="U16" t="n">
         <v>0.100972397625723</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -34211,13 +34211,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34375,7 +34375,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.2149115618619</v>
+        <v>169.2149115618621</v>
       </c>
       <c r="K11" t="n">
-        <v>304.8603165218308</v>
+        <v>304.8603165218311</v>
       </c>
       <c r="L11" t="n">
-        <v>415.4806871657564</v>
+        <v>415.4806871657567</v>
       </c>
       <c r="M11" t="n">
-        <v>494.2916497814111</v>
+        <v>494.2916497814115</v>
       </c>
       <c r="N11" t="n">
-        <v>506.9502179447558</v>
+        <v>506.9502179447562</v>
       </c>
       <c r="O11" t="n">
-        <v>465.228754533504</v>
+        <v>465.2287545335043</v>
       </c>
       <c r="P11" t="n">
-        <v>362.2124827295781</v>
+        <v>362.2124827295784</v>
       </c>
       <c r="Q11" t="n">
-        <v>223.3471498243055</v>
+        <v>223.3471498243057</v>
       </c>
       <c r="R11" t="n">
-        <v>43.64739331736928</v>
+        <v>43.64739331736939</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>81.77531586886403</v>
+        <v>81.77531586886414</v>
       </c>
       <c r="K12" t="n">
-        <v>218.7113071994785</v>
+        <v>218.7113071994787</v>
       </c>
       <c r="L12" t="n">
-        <v>340.8747887926827</v>
+        <v>340.8747887926829</v>
       </c>
       <c r="M12" t="n">
-        <v>417.3371925891745</v>
+        <v>417.3371925891749</v>
       </c>
       <c r="N12" t="n">
-        <v>442.9370530350194</v>
+        <v>442.9370530350196</v>
       </c>
       <c r="O12" t="n">
-        <v>382.7566311753009</v>
+        <v>382.7566311753011</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6675911981732</v>
+        <v>287.6675911981733</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.8747358046097</v>
+        <v>141.8747358046098</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>82.8818579536574</v>
+        <v>82.88185795365746</v>
       </c>
       <c r="K13" t="n">
-        <v>238.1656971313625</v>
+        <v>238.1656971313627</v>
       </c>
       <c r="L13" t="n">
-        <v>348.1711057366173</v>
+        <v>348.1711057366174</v>
       </c>
       <c r="M13" t="n">
-        <v>375.1257010196862</v>
+        <v>375.1257010196863</v>
       </c>
       <c r="N13" t="n">
-        <v>372.77421593265</v>
+        <v>372.7742159326502</v>
       </c>
       <c r="O13" t="n">
-        <v>331.6022496426187</v>
+        <v>331.6022496426189</v>
       </c>
       <c r="P13" t="n">
-        <v>266.532004281452</v>
+        <v>266.5320042814521</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.2113978511836</v>
+        <v>114.2113978511837</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2149115618619</v>
+        <v>169.2149115618621</v>
       </c>
       <c r="K14" t="n">
-        <v>304.8603165218308</v>
+        <v>304.8603165218311</v>
       </c>
       <c r="L14" t="n">
-        <v>415.4806871657564</v>
+        <v>415.4806871657567</v>
       </c>
       <c r="M14" t="n">
-        <v>494.2916497814111</v>
+        <v>494.2916497814115</v>
       </c>
       <c r="N14" t="n">
-        <v>506.9502179447558</v>
+        <v>506.9502179447562</v>
       </c>
       <c r="O14" t="n">
-        <v>465.228754533504</v>
+        <v>465.2287545335043</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2124827295781</v>
+        <v>362.2124827295784</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.3471498243055</v>
+        <v>223.3471498243057</v>
       </c>
       <c r="R14" t="n">
-        <v>43.64739331736928</v>
+        <v>43.64739331736939</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.77531586886403</v>
+        <v>81.77531586886414</v>
       </c>
       <c r="K15" t="n">
-        <v>218.7113071994785</v>
+        <v>218.7113071994787</v>
       </c>
       <c r="L15" t="n">
-        <v>340.8747887926827</v>
+        <v>340.8747887926829</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3371925891745</v>
+        <v>417.3371925891749</v>
       </c>
       <c r="N15" t="n">
-        <v>442.9370530350194</v>
+        <v>442.9370530350196</v>
       </c>
       <c r="O15" t="n">
-        <v>382.7566311753009</v>
+        <v>382.7566311753011</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6675911981732</v>
+        <v>287.6675911981733</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.8747358046097</v>
+        <v>141.8747358046098</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8818579536574</v>
+        <v>82.88185795365746</v>
       </c>
       <c r="K16" t="n">
-        <v>238.1656971313625</v>
+        <v>238.1656971313627</v>
       </c>
       <c r="L16" t="n">
-        <v>348.1711057366173</v>
+        <v>348.1711057366174</v>
       </c>
       <c r="M16" t="n">
-        <v>375.1257010196862</v>
+        <v>375.1257010196863</v>
       </c>
       <c r="N16" t="n">
-        <v>372.77421593265</v>
+        <v>372.7742159326502</v>
       </c>
       <c r="O16" t="n">
-        <v>331.6022496426187</v>
+        <v>331.6022496426189</v>
       </c>
       <c r="P16" t="n">
-        <v>266.532004281452</v>
+        <v>266.5320042814521</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.2113978511836</v>
+        <v>114.2113978511837</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.22075324952682</v>
+        <v>96.22075324952661</v>
       </c>
       <c r="K19" t="n">
-        <v>178.3970674053028</v>
+        <v>178.3970674053026</v>
       </c>
       <c r="L19" t="n">
-        <v>232.6715408136556</v>
+        <v>232.6715408136554</v>
       </c>
       <c r="M19" t="n">
-        <v>243.5911767288334</v>
+        <v>243.5911767288332</v>
       </c>
       <c r="N19" t="n">
-        <v>247.9316357067811</v>
+        <v>247.9316357067809</v>
       </c>
       <c r="O19" t="n">
-        <v>215.5357198953291</v>
+        <v>215.5357198953289</v>
       </c>
       <c r="P19" t="n">
-        <v>217.036763156346</v>
+        <v>217.0367631563508</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.8435760920249</v>
+        <v>95.84357609202469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.22075324952682</v>
+        <v>96.22075324952661</v>
       </c>
       <c r="K22" t="n">
-        <v>178.3970674053028</v>
+        <v>178.3970674053026</v>
       </c>
       <c r="L22" t="n">
-        <v>232.6715408136556</v>
+        <v>232.6715408136554</v>
       </c>
       <c r="M22" t="n">
-        <v>243.5911767288334</v>
+        <v>243.5911767288332</v>
       </c>
       <c r="N22" t="n">
-        <v>247.9316357067811</v>
+        <v>247.9316357067809</v>
       </c>
       <c r="O22" t="n">
-        <v>215.5357198953291</v>
+        <v>254.0719054656762</v>
       </c>
       <c r="P22" t="n">
-        <v>217.036763156346</v>
+        <v>178.5005775860035</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.8435760920249</v>
+        <v>95.84357609202469</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>267.144946413863</v>
+        <v>267.1449464138639</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>104.2812939233912</v>
+        <v>104.2812939233911</v>
       </c>
       <c r="K25" t="n">
-        <v>104.8127323306551</v>
+        <v>191.6430118327153</v>
       </c>
       <c r="L25" t="n">
         <v>249.621789261692</v>
       </c>
       <c r="M25" t="n">
-        <v>261.4628371170866</v>
+        <v>261.4628371170865</v>
       </c>
       <c r="N25" t="n">
         <v>265.3783479561266</v>
       </c>
       <c r="O25" t="n">
-        <v>231.6505824898057</v>
+        <v>144.8203029877472</v>
       </c>
       <c r="P25" t="n">
-        <v>192.2896264641177</v>
+        <v>192.2896264641176</v>
       </c>
       <c r="Q25" t="n">
         <v>105.3903987931905</v>
       </c>
       <c r="R25" t="n">
-        <v>3.406965963001014</v>
+        <v>3.406965963000928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>384.1664231739931</v>
       </c>
       <c r="L26" t="n">
-        <v>798.7395244573001</v>
+        <v>502.5652510109247</v>
       </c>
       <c r="M26" t="n">
         <v>585.8962524488193</v>
@@ -36607,7 +36607,7 @@
         <v>599.276972031504</v>
       </c>
       <c r="O26" t="n">
-        <v>555.0281375068117</v>
+        <v>851.2024109531876</v>
       </c>
       <c r="P26" t="n">
         <v>445.7371228379644</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.398206845666607</v>
+        <v>5.398206845666635</v>
       </c>
       <c r="J29" t="n">
         <v>237.7621375873051</v>
@@ -36841,19 +36841,19 @@
         <v>585.8962524488193</v>
       </c>
       <c r="N29" t="n">
-        <v>599.276972031504</v>
+        <v>895.4512454778799</v>
       </c>
       <c r="O29" t="n">
-        <v>638.8874202932823</v>
+        <v>555.0281375068117</v>
       </c>
       <c r="P29" t="n">
         <v>445.7371228379644</v>
       </c>
       <c r="Q29" t="n">
-        <v>510.0844320822167</v>
+        <v>297.7694414223121</v>
       </c>
       <c r="R29" t="n">
-        <v>106.5883351608173</v>
+        <v>106.5883351608174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37063,16 +37063,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.398206845666635</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="J32" t="n">
         <v>237.7621375873051</v>
       </c>
       <c r="K32" t="n">
-        <v>384.1664231739931</v>
+        <v>680.340696620369</v>
       </c>
       <c r="L32" t="n">
-        <v>798.7395244573001</v>
+        <v>502.5652510109247</v>
       </c>
       <c r="M32" t="n">
         <v>585.8962524488193</v>
@@ -37090,7 +37090,7 @@
         <v>297.7694414223121</v>
       </c>
       <c r="R32" t="n">
-        <v>106.5883351608174</v>
+        <v>106.5883351608173</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37239,7 +37239,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412316</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266797</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>88.27060879450316</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>249.3676628272392</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266854</v>
+        <v>1.332299818266797</v>
       </c>
       <c r="J40" t="n">
         <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038279</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>215.6398973609174</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057564</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37859,13 +37859,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37935,25 +37935,25 @@
         <v>1.332299818266925</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>175.6323267038256</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121432</v>
+        <v>245.4521519881968</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q43" t="n">
         <v>110.7360003882472</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38172,10 +38172,10 @@
         <v>1.332299818266925</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>184.3848942618834</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567487</v>
@@ -38184,19 +38184,19 @@
         <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>215.6398973609155</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
         <v>197.6352280591744</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057692</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
